--- a/listA.xlsx
+++ b/listA.xlsx
@@ -446,42 +446,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Liked</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Easy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Useful</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Antireqs</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Prereqs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Liked</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Easy</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Useful</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Offered F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Offered W</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Offered S</t>
         </is>
       </c>
     </row>
@@ -496,34 +496,34 @@
           <t>The Social Implications of Computing</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8546511627906976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5058139534883721</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>CS240/CS240E; Computer Science students only</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8546511627906976</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5058139534883721</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -538,32 +538,32 @@
           <t>Technologies of Being Human</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="E3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.5833333333333334</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -576,26 +576,26 @@
           <t>Entrepreneurship for Social Impact</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8055555555555556</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="G4" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -608,34 +608,34 @@
           <t>Technology and Social Change</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>SOC101/SOC101R</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -650,34 +650,34 @@
           <t>Conservation/Resource Management of the Built Environment</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>ENVS200</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -692,38 +692,38 @@
           <t>Sustainability: The Future We Want</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>ENVS274 ENVS081 S19</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Level at least 2A or Sustainability and Financial Management students.</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
           <t>Environmental and Sustainability Assessment 2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>ERS215; ENVS200 or International Development students</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -780,32 +780,32 @@
           <t>The Computing Society</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8035714285714286</v>
+      </c>
       <c r="E9" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.4464285714285715</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -818,34 +818,34 @@
           <t>Digital Cultures</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SOC101/SOC101R</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>SOC101/SOC101R</t>
         </is>
       </c>
     </row>
@@ -861,27 +861,27 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>1 of AE392,BME364,CIVE306/ENVE306/MSE306,ECON221,ENVE224,ENVS278,ME202,MSE252,MTE201,NE215, PSCI314,PSYCH292,REC371,SDS250R,SOC280, STAT202,MSE206,MSE211,MSE221,MSE231,MSE241,SYDE212</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -896,36 +896,36 @@
           <t>Climate Change Fundamentals</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6794871794871795</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>GEOG208, GEOG308</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0.6507936507936508</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6794871794871795</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -938,34 +938,34 @@
           <t>Information Technology and Society</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Level at least 3A or any - or -level STV course</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -980,29 +980,29 @@
           <t>Design Frameworks for Social Ventures</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>Level at least 2A</t>
         </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1016,32 +1016,32 @@
           <t>The Computing Society</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5833333333333334</v>
+      </c>
       <c r="E15" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="G15" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1054,34 +1054,34 @@
           <t>Environment and Development in a Global Perspective</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7905405405405406</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>ENVS195, ENVS205, or GEOG101</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5740740740740741</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.7905405405405406</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.4791666666666667</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1096,29 +1096,29 @@
           <t>Design, Systems, and Society</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2A Systems Design Engineering</t>
-        </is>
+      <c r="C17" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8409090909090909</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5166666666666667</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.8409090909090909</v>
-      </c>
-      <c r="G17" t="n">
         <v>0.3809523809523809</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2A Systems Design Engineering</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1135,17 +1135,17 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1158,36 +1158,36 @@
           <t>Design and Society</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>0.4933333333333333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8155737704918032</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2745901639344262</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>SYDE261</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8155737704918032</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2745901639344262</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1200,32 +1200,32 @@
           <t>Cybernetics and Society</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8625</v>
+      </c>
       <c r="E20" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8625</v>
-      </c>
-      <c r="G20" t="n">
         <v>0.4473684210526316</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1238,34 +1238,34 @@
           <t>Biotechnology and Society</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>Level at least 3A or any - or -level STV course</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1280,34 +1280,34 @@
           <t>Environmental and Sustainability Assessment 1</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6556603773584906</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>Level at least 1B</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.6556603773584906</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.5972222222222222</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1322,32 +1322,32 @@
           <t>Impact of Information Systems on Organizations and Society</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
         <v>0.5</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1360,34 +1360,34 @@
           <t>Environmental Sustainability and Ethics</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5892857142857143</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
         <is>
           <t>Level at least 2A; not open to Sustainability and Financial Management students</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.5892857142857143</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1402,30 +1402,30 @@
           <t>Technology, Society and the Modern City</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
         <is>
           <t>Level at least 3A or any - or -level STV course</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1440,38 +1440,38 @@
           <t>Engineering and Peace</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>PACS301 taken spring 2016 or PACS301 (LEC001) taken fall 2017</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Level at least 2A or Peace and Conflict Studies Diploma students.</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1486,29 +1486,29 @@
           <t>Societal and Environmental Impacts of Nanotechnology</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
         <is>
           <t>Level 1A Nanotechnology Engineering</t>
         </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1522,29 +1522,29 @@
           <t>Biomedical Engineering Ethics</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Level at least 3A Biomedical Engineering</t>
-        </is>
+      <c r="C28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9</v>
       </c>
       <c r="E28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G28" t="n">
         <v>0.25</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Level at least 3A Biomedical Engineering</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1558,26 +1558,26 @@
           <t>Artificial Intelligence and Society: Impact, Ethics, and Equity</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="E29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29" t="n">
         <v>0.4166666666666667</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1590,33 +1590,33 @@
           <t>Human Dimensions of Natural Hazards</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9264705882352942</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8088235294117647</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>GEOG206</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Level at least 2A.</t>
         </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9264705882352942</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.8088235294117647</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1630,32 +1630,32 @@
           <t>Society, Technology and Values: Introduction</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.5340909090909091</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8152173913043478</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.5340909090909091</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.8152173913043478</v>
-      </c>
-      <c r="G31" t="n">
         <v>0.1641791044776119</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1668,34 +1668,34 @@
           <t>Conservation/Resource Management of the Built Environment</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
         <is>
           <t>ENVS200</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1710,32 +1710,32 @@
           <t>Biomedical Ethics</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0.7087378640776699</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6071428571428571</v>
+      </c>
       <c r="E33" t="n">
-        <v>0.7087378640776699</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="G33" t="n">
         <v>0.6493506493506493</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1749,27 +1749,27 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
         <is>
           <t>Level at least 3A or any - or -level STV course</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1784,36 +1784,36 @@
           <t>Technology, Gender, and Social Justice</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>WS205</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
